--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110119.0827515078</v>
+        <v>19715361.96106806</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110119.0827515078</v>
+        <v>19715361.96106806</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78892.39910393297</v>
+        <v>9908573.901846334</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78892.39910393297</v>
+        <v>9908573.901846334</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608531036.01855</v>
+        <v>54786531.88301364</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12712.96323787374</v>
+        <v>1257798.413077719</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24719.7449648533</v>
+        <v>2407234.895118946</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36726.52669183285</v>
+        <v>3556671.377160172</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50971.19447911443</v>
+        <v>4413960.362383464</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62932.62975863415</v>
+        <v>5569840.490816968</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74894.06503815386</v>
+        <v>6725720.619250472</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86855.50031767356</v>
+        <v>7881600.747683978</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>98816.93559719328</v>
+        <v>9037480.876117477</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112548.7379813758</v>
+        <v>9956541.145526739</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124407.9157915252</v>
+        <v>11126093.02939502</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>135631.736866973</v>
+        <v>12201377.11268911</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147490.9146771225</v>
+        <v>13370928.99655739</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>159350.0924872719</v>
+        <v>14540480.88042567</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>173029.7715966773</v>
+        <v>15501031.06342615</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>193485.0182976744</v>
+        <v>15781949.2774994</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>250.9999999999908</v>
@@ -27052,10 +27052,10 @@
         <v>153.0000000000111</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27141,22 +27141,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
